--- a/BackTest/2020-01-12 BackTest SOC.xlsx
+++ b/BackTest/2020-01-12 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,11 +484,17 @@
         <v>404977193.8398786</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.79</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>404977596.3600786</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.72</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>404393339.9983786</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.76</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>403299544.0370786</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.66</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +644,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +681,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +718,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +755,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +792,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +829,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +866,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +903,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +940,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +977,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1014,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1051,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1088,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1125,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1162,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1199,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1236,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1273,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1310,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1347,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1384,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1421,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1458,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1495,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1532,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1569,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1602,15 @@
         <v>402897687.6256823</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1639,15 @@
         <v>402897687.6256823</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1676,15 @@
         <v>402897687.6256823</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1713,15 @@
         <v>402897687.6256823</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1750,15 @@
         <v>402897346.1054823</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1787,15 @@
         <v>402858502.4773823</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1824,15 @@
         <v>402858502.4773823</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1861,15 @@
         <v>402864652.4773823</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1898,15 @@
         <v>402545252.0418823</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1935,15 @@
         <v>402621408.4318823</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1972,15 @@
         <v>402595724.8284823</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2009,15 @@
         <v>402608723.4473823</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2046,15 @@
         <v>402608989.5812823</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2083,15 @@
         <v>402486409.2328823</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2120,15 @@
         <v>402337046.0022823</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2157,15 @@
         <v>401838848.7710823</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2194,15 @@
         <v>401919912.4402823</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2231,15 @@
         <v>401919912.4402823</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2268,15 @@
         <v>401924807.6626971</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2305,15 @@
         <v>401924861.3812971</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2342,15 @@
         <v>401923742.899897</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2379,15 @@
         <v>401923742.899897</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2416,15 @@
         <v>401917071.5134659</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2457,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2494,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2531,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2568,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2605,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2642,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2679,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2716,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2753,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2790,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2827,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2864,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2901,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2938,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2975,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3012,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3049,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3086,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3123,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3160,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3197,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3234,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3271,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3308,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3345,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3382,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3419,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3456,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3493,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3530,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3567,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3604,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3641,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3678,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3715,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3752,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3789,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3826,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3863,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3900,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3937,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3974,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4011,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4048,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4085,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4122,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4159,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4196,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4233,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4270,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4307,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4344,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4381,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4418,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4455,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4492,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4529,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4566,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4603,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4640,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4677,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4714,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4751,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4788,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4825,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4862,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4899,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4936,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4973,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +5006,15 @@
         <v>402467392.0446144</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,14 +5043,16 @@
         <v>402467361.7415144</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -4807,7 +5309,7 @@
         <v>402459353.1492192</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5342,7 @@
         <v>402480426.6702192</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5375,7 @@
         <v>402480393.6702192</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5408,7 @@
         <v>402480250.8734192</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5005,7 +5507,7 @@
         <v>402436713.7475192</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5540,7 @@
         <v>402436754.5928192</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5573,7 @@
         <v>402438836.2053192</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5606,7 @@
         <v>402438895.8777192</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5639,7 @@
         <v>402436601.2116192</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5672,7 @@
         <v>402436601.2116192</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5705,7 @@
         <v>402422383.9960192</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5738,7 @@
         <v>402392657.3453192</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5771,7 @@
         <v>402392657.3453192</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5804,7 @@
         <v>402393069.9212192</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5837,7 @@
         <v>402393117.8817192</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5870,7 @@
         <v>402393117.8817192</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5903,7 @@
         <v>402393162.6592192</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5936,7 @@
         <v>402385763.4075192</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5969,7 @@
         <v>402385819.3951192</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +6002,7 @@
         <v>402382988.5185192</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +6035,7 @@
         <v>402370111.001943</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +6068,7 @@
         <v>402405891.6643309</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +6101,7 @@
         <v>402471833.6784818</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +6134,7 @@
         <v>402471833.6784818</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +6167,7 @@
         <v>402471833.6784818</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +6200,7 @@
         <v>402471833.6784818</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +6233,7 @@
         <v>402471833.6784818</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +6266,7 @@
         <v>402495132.7422818</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +6299,7 @@
         <v>402495132.7422818</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +6332,7 @@
         <v>402567973.4534818</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6365,7 @@
         <v>402567724.9956818</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +6398,7 @@
         <v>402549819.4539919</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6431,7 @@
         <v>402537518.4857919</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6464,7 @@
         <v>402537518.4857919</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6497,7 @@
         <v>402540059.9486918</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6530,7 @@
         <v>402538863.1719918</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6563,7 @@
         <v>402537809.5446918</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6596,7 @@
         <v>402537809.5446918</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6629,7 @@
         <v>402528917.9384918</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6662,7 @@
         <v>402528917.9384918</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6695,7 @@
         <v>402528917.9384918</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6728,7 @@
         <v>402529024.2175918</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6761,7 @@
         <v>402529024.2175918</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6794,7 @@
         <v>402529024.2175918</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6827,7 @@
         <v>402507875.2462918</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6860,7 @@
         <v>402506806.6372918</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6893,7 @@
         <v>402479133.1350918</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6926,7 @@
         <v>402479133.1350918</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6959,7 @@
         <v>402473857.8285918</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6992,7 @@
         <v>402473857.8285918</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +7025,7 @@
         <v>402391171.3669918</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +7058,7 @@
         <v>402391460.2379918</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +7091,7 @@
         <v>402391460.2379918</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +7124,7 @@
         <v>402385241.3329918</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +7157,7 @@
         <v>402301701.0577918</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +7190,7 @@
         <v>402398484.5373918</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +7223,7 @@
         <v>402398484.5373918</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +7256,7 @@
         <v>402398484.5373918</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +7289,7 @@
         <v>402398484.5373918</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +7322,7 @@
         <v>402398570.7869918</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +7355,7 @@
         <v>402398570.7869918</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +7388,7 @@
         <v>402398570.7869918</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +7421,7 @@
         <v>402398570.7869918</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +7454,7 @@
         <v>402390306.6665918</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +7487,7 @@
         <v>402390306.6665918</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7520,7 @@
         <v>402257858.2991918</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7553,7 @@
         <v>402268769.7097887</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7586,7 @@
         <v>402268769.7097887</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7619,7 @@
         <v>402264529.8043857</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7652,7 @@
         <v>402266106.3764857</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7685,7 @@
         <v>402266047.1434857</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7718,7 @@
         <v>402266047.1434857</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7751,7 @@
         <v>402265983.3963857</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7784,7 @@
         <v>402266101.4159857</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7817,7 @@
         <v>402266101.4159857</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7850,7 @@
         <v>402265997.5101857</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7883,7 @@
         <v>402265997.5101857</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7916,7 @@
         <v>402247752.5901857</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7949,7 @@
         <v>402077721.4391857</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7982,7 @@
         <v>402020796.8655857</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +8015,7 @@
         <v>402044420.2310857</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +8048,7 @@
         <v>402044420.2310857</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -9328,14 +9830,10 @@
         <v>399816247.3507332</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J271" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
@@ -9365,19 +9863,11 @@
         <v>399862362.6981332</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J272" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9406,19 +9896,11 @@
         <v>399909937.0110332</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="J273" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9447,19 +9929,11 @@
         <v>400001153.6709332</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="J274" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9488,19 +9962,11 @@
         <v>399928628.9452332</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="J275" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9529,19 +9995,11 @@
         <v>400028825.7287332</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="J276" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9570,19 +10028,11 @@
         <v>400053697.8308332</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="J277" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9611,19 +10061,11 @@
         <v>400053697.8308332</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="J278" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9652,19 +10094,11 @@
         <v>400053697.8308332</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="J279" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9696,14 +10130,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9735,14 +10163,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9774,14 +10196,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9813,14 +10229,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9852,14 +10262,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9891,14 +10295,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9930,14 +10328,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9969,14 +10361,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10008,14 +10394,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10047,14 +10427,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10086,14 +10460,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10125,14 +10493,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10164,14 +10526,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10203,14 +10559,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10242,14 +10592,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10281,14 +10625,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10320,14 +10658,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10359,14 +10691,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10398,14 +10724,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10437,14 +10757,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10476,14 +10790,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10512,19 +10820,11 @@
         <v>399938932.8585532</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="J301" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10553,19 +10853,11 @@
         <v>399904909.6605485</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="J302" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10594,19 +10886,11 @@
         <v>399986709.4031901</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="J303" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10635,19 +10919,11 @@
         <v>399986709.4031901</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="J304" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10676,19 +10952,11 @@
         <v>399986709.4031901</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="J305" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10717,19 +10985,11 @@
         <v>400125648.6384901</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="J306" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10758,19 +11018,11 @@
         <v>400106980.3124167</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="J307" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10799,19 +11051,11 @@
         <v>400136908.5690168</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="J308" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10840,19 +11084,11 @@
         <v>400136811.5690168</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="J309" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10881,19 +11117,11 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="J310" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10922,19 +11150,11 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="J311" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10963,19 +11183,11 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="J312" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11004,19 +11216,11 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="J313" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11045,19 +11249,11 @@
         <v>400153180.1499562</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="J314" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11086,19 +11282,11 @@
         <v>400153180.1499562</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="J315" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11127,19 +11315,11 @@
         <v>400172875.9454278</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="J316" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11168,19 +11348,11 @@
         <v>400164543.9454278</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J317" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11209,19 +11381,11 @@
         <v>400164543.9454278</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="J318" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11250,19 +11414,11 @@
         <v>399964375.4367278</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="J319" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11291,19 +11447,11 @@
         <v>399964542.1810278</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="J320" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11332,19 +11480,11 @@
         <v>399762351.4124278</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="J321" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11373,19 +11513,11 @@
         <v>399762413.4471278</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="J322" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11414,19 +11546,11 @@
         <v>399762448.4471278</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="J323" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11455,19 +11579,11 @@
         <v>399775247.8548278</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>16</v>
-      </c>
-      <c r="J324" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11496,19 +11612,11 @@
         <v>399658899.3472278</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="J325" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11540,14 +11648,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11579,14 +11681,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11615,19 +11711,11 @@
         <v>399547150.0493885</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="J328" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11659,14 +11747,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11698,14 +11780,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11737,14 +11813,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11776,14 +11846,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11815,14 +11879,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11854,14 +11912,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11893,14 +11945,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11932,14 +11978,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11971,14 +12011,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12010,14 +12044,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12049,14 +12077,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12088,14 +12110,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12127,14 +12143,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12166,14 +12176,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12205,14 +12209,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12244,14 +12242,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12283,14 +12275,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12319,19 +12305,11 @@
         <v>399735713.3611885</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J346" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12360,19 +12338,11 @@
         <v>399735713.3611885</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="J347" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12404,14 +12374,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12443,14 +12407,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12479,19 +12437,11 @@
         <v>399735713.3611885</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="J350" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12523,14 +12473,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12562,14 +12506,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12601,14 +12539,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12640,14 +12572,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12679,14 +12605,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12718,14 +12638,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12757,14 +12671,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12796,14 +12704,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12835,14 +12737,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12874,14 +12770,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12913,14 +12803,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12952,14 +12836,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12991,14 +12869,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13030,14 +12902,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13069,14 +12935,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13108,14 +12968,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13147,14 +13001,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13186,14 +13034,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13225,14 +13067,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13264,14 +13100,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13303,14 +13133,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13342,14 +13166,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13381,14 +13199,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13420,14 +13232,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13459,14 +13265,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13498,14 +13298,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13537,14 +13331,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13576,14 +13364,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13615,14 +13397,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13654,14 +13430,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13693,14 +13463,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13729,23 +13493,15 @@
         <v>401100155.6621998</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
-        <v>1.058694267515924</v>
-      </c>
-      <c r="M382" t="n">
-        <v>1.081946222791293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -13770,7 +13526,7 @@
         <v>401100155.6621998</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13803,7 +13559,7 @@
         <v>401100155.6621998</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13836,7 +13592,7 @@
         <v>401100155.6621998</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13869,7 +13625,7 @@
         <v>401135626.5233766</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13902,7 +13658,7 @@
         <v>401054558.2475767</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14001,7 +13757,7 @@
         <v>401633246.1949767</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15123,7 +14879,7 @@
         <v>405120143.4990968</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15156,7 +14912,7 @@
         <v>405186181.9536691</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15189,7 +14945,7 @@
         <v>405088669.3388414</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15387,7 +15143,7 @@
         <v>405012521.3304414</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15453,7 +15209,7 @@
         <v>405128967.4606414</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15486,7 +15242,7 @@
         <v>405106281.0615414</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15519,7 +15275,7 @@
         <v>405106281.0615414</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15552,7 +15308,7 @@
         <v>404926536.8921415</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15585,7 +15341,7 @@
         <v>404954566.8921415</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15618,7 +15374,7 @@
         <v>405036658.9811414</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15651,7 +15407,7 @@
         <v>405036658.9811414</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15684,7 +15440,7 @@
         <v>405041331.2268414</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15717,7 +15473,7 @@
         <v>405043599.1777415</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15750,7 +15506,7 @@
         <v>405043599.1777415</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15783,7 +15539,7 @@
         <v>405106384.2491333</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15816,7 +15572,7 @@
         <v>405049678.7952333</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15849,7 +15605,7 @@
         <v>405080588.6365333</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15882,7 +15638,7 @@
         <v>405016954.3952333</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15915,7 +15671,7 @@
         <v>405014589.2709333</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15948,7 +15704,7 @@
         <v>405038653.9391447</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15981,7 +15737,7 @@
         <v>405108567.3964447</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16014,7 +15770,7 @@
         <v>405009992.3156983</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16047,7 +15803,7 @@
         <v>404995245.8522837</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16080,7 +15836,7 @@
         <v>404995245.8522837</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16113,7 +15869,7 @@
         <v>404616265.8184837</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16146,7 +15902,7 @@
         <v>404400931.2909837</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16179,7 +15935,7 @@
         <v>404411353.2177837</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16212,7 +15968,7 @@
         <v>403651454.6023837</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16245,7 +16001,7 @@
         <v>403651454.6023837</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16278,7 +16034,7 @@
         <v>403741783.5553837</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16311,7 +16067,7 @@
         <v>403741783.5553837</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16344,7 +16100,7 @@
         <v>403782978.9415838</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16377,7 +16133,7 @@
         <v>403800384.580927</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16410,7 +16166,7 @@
         <v>403839157.2979838</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16443,7 +16199,7 @@
         <v>403839157.2979838</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16476,7 +16232,7 @@
         <v>403839157.2979838</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16509,7 +16265,7 @@
         <v>403856161.5483838</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16542,7 +16298,7 @@
         <v>403835950.0017838</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16575,7 +16331,7 @@
         <v>403965044.4813838</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16608,7 +16364,7 @@
         <v>403833333.8359838</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16641,7 +16397,7 @@
         <v>403809394.2172838</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16674,7 +16430,7 @@
         <v>403670665.8166838</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16707,7 +16463,7 @@
         <v>403745910.6533838</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16740,7 +16496,7 @@
         <v>403745910.6533838</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16773,7 +16529,7 @@
         <v>403669553.9269838</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16806,7 +16562,7 @@
         <v>403669653.9269838</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16839,7 +16595,7 @@
         <v>403633600.9711838</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16872,7 +16628,7 @@
         <v>403633600.9711838</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16905,7 +16661,7 @@
         <v>403661618.7110838</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16938,7 +16694,7 @@
         <v>403661618.7110838</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16971,7 +16727,7 @@
         <v>403662089.2596838</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17004,7 +16760,7 @@
         <v>403673232.8571838</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17037,7 +16793,7 @@
         <v>403663139.5085838</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17070,7 +16826,7 @@
         <v>403663139.5085838</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17103,7 +16859,7 @@
         <v>403689934.2616838</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17136,7 +16892,7 @@
         <v>403689934.2616838</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17169,7 +16925,7 @@
         <v>403557652.0035838</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17202,7 +16958,7 @@
         <v>403557652.0035838</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17235,7 +16991,7 @@
         <v>403557652.0035838</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17400,7 +17156,7 @@
         <v>403544887.3501838</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17433,7 +17189,7 @@
         <v>403534843.9914839</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17466,7 +17222,7 @@
         <v>403033201.6299838</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17499,7 +17255,7 @@
         <v>403137171.3719838</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17730,7 +17486,7 @@
         <v>403215140.2656972</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17763,7 +17519,7 @@
         <v>403214737.3036972</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17796,7 +17552,7 @@
         <v>403217316.4822972</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17829,7 +17585,7 @@
         <v>403247645.287942</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17862,7 +17618,7 @@
         <v>403247645.287942</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17895,7 +17651,7 @@
         <v>402924450.485642</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17928,7 +17684,7 @@
         <v>402924450.485642</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17961,7 +17717,7 @@
         <v>402924481.485642</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17994,7 +17750,7 @@
         <v>402924481.485642</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18027,7 +17783,7 @@
         <v>402924481.485642</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18060,7 +17816,7 @@
         <v>403401437.1447839</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18093,7 +17849,7 @@
         <v>403401437.1447839</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18126,7 +17882,7 @@
         <v>403446032.1404839</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18159,7 +17915,7 @@
         <v>403461157.7091839</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18192,7 +17948,7 @@
         <v>403601601.0212839</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18225,7 +17981,7 @@
         <v>403601601.0212839</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18258,7 +18014,7 @@
         <v>403601631.0212839</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18291,7 +18047,7 @@
         <v>403544801.0935839</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18324,7 +18080,7 @@
         <v>403738664.9200839</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18357,7 +18113,7 @@
         <v>404021948.3394839</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18390,7 +18146,7 @@
         <v>404137886.5863839</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18423,7 +18179,7 @@
         <v>404170607.9180839</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18456,7 +18212,7 @@
         <v>404170607.9180839</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18489,7 +18245,7 @@
         <v>404200233.7245731</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18522,7 +18278,7 @@
         <v>404199233.7245731</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18555,7 +18311,7 @@
         <v>403842692.6723731</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18588,7 +18344,7 @@
         <v>403842722.6723731</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18621,7 +18377,7 @@
         <v>403824400.0970731</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18654,7 +18410,7 @@
         <v>403813916.8669731</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18687,7 +18443,7 @@
         <v>403924763.3746088</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18720,7 +18476,7 @@
         <v>403895895.7513087</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18753,7 +18509,7 @@
         <v>403895895.7513087</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18786,7 +18542,7 @@
         <v>403895895.7513087</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18819,7 +18575,7 @@
         <v>403895925.7513087</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18852,7 +18608,7 @@
         <v>404008610.1920497</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19017,7 +18773,7 @@
         <v>403982648.8114131</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19050,7 +18806,7 @@
         <v>404052158.4778131</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19083,7 +18839,7 @@
         <v>404103994.3564131</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19116,7 +18872,7 @@
         <v>404052623.6287131</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19149,7 +18905,7 @@
         <v>404052623.6287131</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19215,7 +18971,7 @@
         <v>404105647.8461131</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19380,7 +19136,7 @@
         <v>404219809.8518131</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19446,7 +19202,7 @@
         <v>404203409.9923131</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19479,7 +19235,7 @@
         <v>404196767.9923131</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19512,7 +19268,7 @@
         <v>404169024.9405131</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19545,7 +19301,7 @@
         <v>404169024.9405131</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19578,7 +19334,7 @@
         <v>404209893.8156131</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19611,7 +19367,7 @@
         <v>404242304.5769131</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19644,7 +19400,7 @@
         <v>404242334.5769131</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19677,7 +19433,7 @@
         <v>404221324.5407131</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19710,7 +19466,7 @@
         <v>404221324.5407131</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19743,7 +19499,7 @@
         <v>403789327.5345131</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19776,7 +19532,7 @@
         <v>403884383.8145131</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19809,7 +19565,7 @@
         <v>403884383.8145131</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19842,7 +19598,7 @@
         <v>403884383.8145131</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19875,7 +19631,7 @@
         <v>403857285.1876131</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19908,7 +19664,7 @@
         <v>403849387.8295131</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19941,7 +19697,7 @@
         <v>404103293.6850131</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19974,7 +19730,7 @@
         <v>404103293.6850131</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20007,7 +19763,7 @@
         <v>404091002.072413</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20040,7 +19796,7 @@
         <v>404091002.072413</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20073,7 +19829,7 @@
         <v>404088626.298613</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20106,7 +19862,7 @@
         <v>404115682.107613</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20139,7 +19895,7 @@
         <v>404115682.107613</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20172,7 +19928,7 @@
         <v>404116820.107613</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20205,7 +19961,7 @@
         <v>404138972.327013</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20238,7 +19994,7 @@
         <v>404138834.327013</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20271,7 +20027,7 @@
         <v>404151834.327013</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20304,7 +20060,7 @@
         <v>404152834.327013</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20337,7 +20093,7 @@
         <v>404157834.327013</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20370,7 +20126,7 @@
         <v>404157834.327013</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20403,7 +20159,7 @@
         <v>404157834.327013</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20436,7 +20192,7 @@
         <v>404149778.525513</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20469,7 +20225,7 @@
         <v>404152278.525513</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20502,7 +20258,7 @@
         <v>404141874.238913</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20535,7 +20291,7 @@
         <v>404083317.689013</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20568,7 +20324,7 @@
         <v>404083317.689013</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20601,7 +20357,7 @@
         <v>404083347.845913</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20634,7 +20390,7 @@
         <v>404071016.843113</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20667,7 +20423,7 @@
         <v>404071418.543213</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20700,7 +20456,7 @@
         <v>404071258.543213</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20733,7 +20489,7 @@
         <v>404071293.586813</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20766,7 +20522,7 @@
         <v>404072048.277513</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20799,7 +20555,7 @@
         <v>402403854.3707829</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20832,7 +20588,7 @@
         <v>402403854.3707829</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20865,7 +20621,7 @@
         <v>402403854.3707829</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20898,7 +20654,7 @@
         <v>400320354.3707829</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20931,7 +20687,7 @@
         <v>406211535.6037829</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20964,7 +20720,7 @@
         <v>405588472.9837829</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20997,7 +20753,7 @@
         <v>405580612.9107829</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21030,7 +20786,7 @@
         <v>407609902.8264829</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21063,7 +20819,7 @@
         <v>407609902.8264829</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21096,7 +20852,7 @@
         <v>402728045.3729829</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21129,7 +20885,7 @@
         <v>402728045.3729829</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21162,7 +20918,7 @@
         <v>406742806.3003829</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21195,7 +20951,7 @@
         <v>404717563.0203829</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21228,7 +20984,7 @@
         <v>401078733.2081829</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21261,7 +21017,7 @@
         <v>401078733.2081829</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21294,7 +21050,7 @@
         <v>401078733.2081829</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21327,7 +21083,7 @@
         <v>398811653.0206829</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21360,7 +21116,7 @@
         <v>398811653.0206829</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21393,7 +21149,7 @@
         <v>398811653.0206829</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21426,7 +21182,7 @@
         <v>398506307.4904829</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21459,7 +21215,7 @@
         <v>398506307.4904829</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21492,7 +21248,7 @@
         <v>396508307.4904829</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21525,7 +21281,7 @@
         <v>396508307.4904829</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21558,7 +21314,7 @@
         <v>396508307.4904829</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21591,7 +21347,7 @@
         <v>399351807.4904829</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21624,7 +21380,7 @@
         <v>399351807.4904829</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21657,7 +21413,7 @@
         <v>395878193.0894829</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21690,7 +21446,7 @@
         <v>398676535.6446341</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21723,7 +21479,7 @@
         <v>398676535.6446341</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21756,7 +21512,7 @@
         <v>398676535.6446341</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21789,7 +21545,7 @@
         <v>398676535.6446341</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21822,7 +21578,7 @@
         <v>398676535.6446341</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21855,7 +21611,7 @@
         <v>398676535.6446341</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21888,7 +21644,7 @@
         <v>398676535.6446341</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21921,7 +21677,7 @@
         <v>398676669.0814341</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21954,7 +21710,7 @@
         <v>398676669.0814341</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21987,7 +21743,7 @@
         <v>398676669.0814341</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22020,7 +21776,7 @@
         <v>398647158.0954341</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22053,7 +21809,7 @@
         <v>398189612.6736341</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22086,7 +21842,7 @@
         <v>398189612.6736341</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22119,7 +21875,7 @@
         <v>398087966.4279341</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22152,7 +21908,7 @@
         <v>398088753.1997788</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22185,7 +21941,7 @@
         <v>398087964.5719788</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22218,7 +21974,7 @@
         <v>398087964.5719788</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22251,7 +22007,7 @@
         <v>398089054.4943788</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22284,7 +22040,7 @@
         <v>398128977.1210788</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22317,7 +22073,7 @@
         <v>398130096.5774788</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22350,7 +22106,7 @@
         <v>398130498.3180788</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22383,7 +22139,7 @@
         <v>398130498.3180788</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22416,7 +22172,7 @@
         <v>398178744.3048788</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22449,7 +22205,7 @@
         <v>398192780.4288788</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22482,7 +22238,7 @@
         <v>398192780.4288788</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22515,7 +22271,7 @@
         <v>398217485.6990788</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22548,7 +22304,7 @@
         <v>398217485.0085788</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22581,7 +22337,7 @@
         <v>398194449.5030788</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22614,7 +22370,7 @@
         <v>398152231.1423787</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22647,7 +22403,7 @@
         <v>398152309.3232787</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22680,7 +22436,7 @@
         <v>398151158.8853787</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22713,7 +22469,7 @@
         <v>398155458.8853787</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22746,7 +22502,7 @@
         <v>398179691.0514787</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22779,7 +22535,7 @@
         <v>398179509.1237679</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22812,7 +22568,7 @@
         <v>398179509.1237679</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22845,7 +22601,7 @@
         <v>398159342.5555679</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22878,7 +22634,7 @@
         <v>398159342.5555679</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22911,7 +22667,7 @@
         <v>398278915.6438679</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22944,7 +22700,7 @@
         <v>398278915.6438679</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22977,7 +22733,7 @@
         <v>398276915.6438679</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23010,7 +22766,7 @@
         <v>398350978.3535679</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23043,7 +22799,7 @@
         <v>398337887.7814679</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23076,7 +22832,7 @@
         <v>398255837.3665679</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23109,7 +22865,7 @@
         <v>398256017.3665679</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23142,7 +22898,7 @@
         <v>398177156.1393679</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23175,7 +22931,7 @@
         <v>398177331.1393679</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23208,7 +22964,7 @@
         <v>398177331.1393679</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23241,7 +22997,7 @@
         <v>398182331.1393679</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23274,7 +23030,7 @@
         <v>398166010.0131679</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23307,7 +23063,7 @@
         <v>398172099.4186679</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23340,7 +23096,7 @@
         <v>398172099.4186679</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23373,7 +23129,7 @@
         <v>398171889.6887679</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23406,7 +23162,7 @@
         <v>398204269.4817679</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23439,7 +23195,7 @@
         <v>398175332.8627679</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23472,7 +23228,7 @@
         <v>398178341.0232679</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23505,7 +23261,7 @@
         <v>398178189.7830985</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23538,7 +23294,7 @@
         <v>398058616.6947985</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23571,7 +23327,7 @@
         <v>398061894.3695984</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23604,7 +23360,7 @@
         <v>398061715.1681985</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23637,7 +23393,7 @@
         <v>398061715.1681985</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23670,7 +23426,7 @@
         <v>398061715.1681985</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23703,7 +23459,7 @@
         <v>398070997.7692618</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23736,7 +23492,7 @@
         <v>398069000.0613291</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23769,7 +23525,7 @@
         <v>398069000.0613291</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23802,7 +23558,7 @@
         <v>397702876.4308291</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23835,7 +23591,7 @@
         <v>397382905.4615291</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23868,7 +23624,7 @@
         <v>397382905.4615291</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23901,7 +23657,7 @@
         <v>397382905.4615291</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23934,7 +23690,7 @@
         <v>397343700.2331291</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23967,7 +23723,7 @@
         <v>397343881.4276292</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24000,7 +23756,7 @@
         <v>397343192.4169292</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24033,7 +23789,7 @@
         <v>397343192.4169292</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24066,7 +23822,7 @@
         <v>397343192.4169292</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24099,7 +23855,7 @@
         <v>397268437.7133292</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24132,7 +23888,7 @@
         <v>397268478.8523292</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24165,7 +23921,7 @@
         <v>397268478.8523292</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24198,7 +23954,7 @@
         <v>397268478.8523292</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24231,7 +23987,7 @@
         <v>397268478.8523292</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24264,7 +24020,7 @@
         <v>397268478.8523292</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24297,7 +24053,7 @@
         <v>397268478.8523292</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24330,7 +24086,7 @@
         <v>397268530.6358292</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24363,7 +24119,7 @@
         <v>397268560.9757292</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24396,7 +24152,7 @@
         <v>397268397.7592292</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24429,7 +24185,7 @@
         <v>397266397.7592292</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24462,7 +24218,7 @@
         <v>397266438.4584292</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24495,7 +24251,7 @@
         <v>397256438.4584292</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24528,7 +24284,7 @@
         <v>397256438.4584292</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24561,7 +24317,7 @@
         <v>397256554.1832292</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24594,7 +24350,7 @@
         <v>397256554.1832292</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24627,7 +24383,7 @@
         <v>397256343.6054292</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24660,7 +24416,7 @@
         <v>397260281.1279292</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24693,7 +24449,7 @@
         <v>397277165.8865292</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24726,7 +24482,7 @@
         <v>397277165.8865292</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24759,7 +24515,7 @@
         <v>397362752.0240973</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24792,7 +24548,7 @@
         <v>397347398.7330365</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24825,7 +24581,7 @@
         <v>397347398.7330365</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24858,7 +24614,7 @@
         <v>397347398.7330365</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24891,7 +24647,7 @@
         <v>397344016.9325365</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24924,7 +24680,7 @@
         <v>397344016.9325365</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24957,7 +24713,7 @@
         <v>397307250.9743366</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24990,7 +24746,7 @@
         <v>397372388.7395571</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25023,7 +24779,7 @@
         <v>397313712.3643571</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25056,7 +24812,7 @@
         <v>397313712.3643571</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25089,7 +24845,7 @@
         <v>397313712.3643571</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25122,7 +24878,7 @@
         <v>397313712.3643571</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25155,7 +24911,7 @@
         <v>397313712.3643571</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25188,7 +24944,7 @@
         <v>397313712.3643571</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25221,7 +24977,7 @@
         <v>397293648.3643571</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25254,7 +25010,7 @@
         <v>397293648.3643571</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25287,7 +25043,7 @@
         <v>397183658.6887571</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25320,7 +25076,7 @@
         <v>397183658.6887571</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25353,7 +25109,7 @@
         <v>397183658.6887571</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25386,7 +25142,7 @@
         <v>397183658.6887571</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25419,7 +25175,7 @@
         <v>397183658.6887571</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25452,7 +25208,7 @@
         <v>397187657.7259571</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25485,7 +25241,7 @@
         <v>397187657.7259571</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25518,7 +25274,7 @@
         <v>397187657.7259571</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25551,7 +25307,7 @@
         <v>397193546.3875571</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25584,7 +25340,7 @@
         <v>397205081.9656571</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25617,7 +25373,7 @@
         <v>397227401.3149571</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25650,7 +25406,7 @@
         <v>397234850.0393571</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25683,7 +25439,7 @@
         <v>397599382.4490571</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25716,7 +25472,7 @@
         <v>397746192.3660571</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25749,7 +25505,7 @@
         <v>397903248.0879571</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25782,7 +25538,7 @@
         <v>398139041.3211571</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26145,7 +25901,7 @@
         <v>400311839.3670137</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26211,7 +25967,7 @@
         <v>400144720.6641137</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26244,7 +26000,7 @@
         <v>400181647.9983137</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26310,7 +26066,7 @@
         <v>400168980.7245137</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26343,7 +26099,7 @@
         <v>400043241.0652949</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26376,7 +26132,7 @@
         <v>400012989.3018137</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26409,7 +26165,7 @@
         <v>399901495.6478137</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26442,7 +26198,7 @@
         <v>399796973.0639138</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26475,7 +26231,7 @@
         <v>399833418.3597137</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26508,7 +26264,7 @@
         <v>399961335.0304137</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26541,7 +26297,7 @@
         <v>399961335.0304137</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26574,7 +26330,7 @@
         <v>399917917.8088138</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26607,7 +26363,7 @@
         <v>399917917.8088138</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26640,7 +26396,7 @@
         <v>399938445.2479138</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26673,7 +26429,7 @@
         <v>399929711.7237138</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26706,7 +26462,7 @@
         <v>399956649.4847137</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26739,7 +26495,7 @@
         <v>399997598.1448137</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27168,7 +26924,7 @@
         <v>400817115.9327137</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27201,7 +26957,7 @@
         <v>400846041.8331137</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27234,7 +26990,7 @@
         <v>400685141.1088137</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27333,7 +27089,7 @@
         <v>400753401.6145137</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27366,7 +27122,7 @@
         <v>400753401.6145137</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27399,7 +27155,7 @@
         <v>400746056.7385137</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27432,7 +27188,7 @@
         <v>400847493.8889137</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27465,7 +27221,7 @@
         <v>400863143.1613137</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27498,7 +27254,7 @@
         <v>400909817.0269137</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27531,7 +27287,7 @@
         <v>400895801.0509137</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27564,7 +27320,7 @@
         <v>400899181.0509137</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27597,7 +27353,7 @@
         <v>400909181.0509137</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27630,7 +27386,7 @@
         <v>400908731.0509137</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27663,7 +27419,7 @@
         <v>400911731.0509137</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27696,7 +27452,7 @@
         <v>400911731.0509137</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27729,7 +27485,7 @@
         <v>400897928.5554137</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27762,7 +27518,7 @@
         <v>400897828.5554137</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27795,7 +27551,7 @@
         <v>400897260.0022137</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27828,7 +27584,7 @@
         <v>400819249.0544137</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27861,7 +27617,7 @@
         <v>400549541.1751137</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27894,7 +27650,7 @@
         <v>400640196.1930137</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27927,7 +27683,7 @@
         <v>400618817.6873137</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27960,7 +27716,7 @@
         <v>400624937.6892241</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27993,7 +27749,7 @@
         <v>400624937.6892241</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28026,7 +27782,7 @@
         <v>400611976.8407241</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28059,7 +27815,7 @@
         <v>400614347.3834241</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28092,7 +27848,7 @@
         <v>400614347.3834241</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28125,7 +27881,7 @@
         <v>400579669.5702241</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28158,7 +27914,7 @@
         <v>400579669.5702241</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28191,7 +27947,7 @@
         <v>400690793.1506241</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28224,7 +27980,7 @@
         <v>400689327.7863241</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28257,7 +28013,7 @@
         <v>400523251.3180241</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28290,7 +28046,7 @@
         <v>400419453.5254241</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28323,7 +28079,7 @@
         <v>400419553.5254241</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28356,7 +28112,7 @@
         <v>400416907.838604</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28389,7 +28145,7 @@
         <v>400412382.990204</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28422,7 +28178,7 @@
         <v>400311908.456904</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28455,7 +28211,7 @@
         <v>400311908.456904</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28488,7 +28244,7 @@
         <v>400311908.456904</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28521,7 +28277,7 @@
         <v>400311908.456904</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28554,7 +28310,7 @@
         <v>400313020.568104</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28587,7 +28343,7 @@
         <v>400475465.226204</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28620,7 +28376,7 @@
         <v>400524011.8187039</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28653,7 +28409,7 @@
         <v>400534066.284004</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28686,7 +28442,7 @@
         <v>400392518.214404</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28719,7 +28475,7 @@
         <v>400399707.721804</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28752,7 +28508,7 @@
         <v>400398810.783404</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28785,7 +28541,7 @@
         <v>400398810.783404</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28818,7 +28574,7 @@
         <v>400397060.838204</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28851,7 +28607,7 @@
         <v>400398049.122704</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28884,7 +28640,7 @@
         <v>400431792.285204</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28917,7 +28673,7 @@
         <v>400423005.287304</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28950,7 +28706,7 @@
         <v>400443294.253204</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28983,7 +28739,7 @@
         <v>400443294.253204</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29016,7 +28772,7 @@
         <v>400505963.5142078</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29049,7 +28805,7 @@
         <v>400495963.5142078</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29082,7 +28838,7 @@
         <v>400496068.7717078</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29115,7 +28871,7 @@
         <v>400496068.7717078</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29148,7 +28904,7 @@
         <v>400496068.7717078</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29181,7 +28937,7 @@
         <v>400496035.7717078</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -29214,7 +28970,7 @@
         <v>400496035.7717078</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29247,7 +29003,7 @@
         <v>400493813.1969078</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -29280,7 +29036,7 @@
         <v>400493813.1969078</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -29313,7 +29069,7 @@
         <v>400422836.6624078</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29346,7 +29102,7 @@
         <v>400420490.0504078</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -29379,7 +29135,7 @@
         <v>400410023.1954077</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -29412,7 +29168,7 @@
         <v>400411266.0525506</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -29445,7 +29201,7 @@
         <v>400411266.0525506</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29478,7 +29234,7 @@
         <v>400411326.8073506</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -29511,7 +29267,7 @@
         <v>400411208.8073506</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -29544,7 +29300,7 @@
         <v>400411208.8073506</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29577,7 +29333,7 @@
         <v>400371344.6141506</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -29610,7 +29366,7 @@
         <v>400371344.6141506</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -29643,7 +29399,7 @@
         <v>400371374.6141506</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29676,7 +29432,7 @@
         <v>400313183.1501507</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -29709,7 +29465,7 @@
         <v>400315524.9863507</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29742,7 +29498,7 @@
         <v>400312678.7249507</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29775,7 +29531,7 @@
         <v>400312678.7249507</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29808,7 +29564,7 @@
         <v>400269066.5738507</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29841,7 +29597,7 @@
         <v>400016539.0266507</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29874,7 +29630,7 @@
         <v>400070225.6325507</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29907,7 +29663,7 @@
         <v>399317868.2702103</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29940,7 +29696,7 @@
         <v>399502958.4848132</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29973,7 +29729,7 @@
         <v>399308978.9668855</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29984,6 +29740,6 @@
       <c r="M874" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest SOC.xlsx
+++ b/BackTest/2020-01-12 BackTest SOC.xlsx
@@ -451,7 +451,7 @@
         <v>405614726.4957666</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -788,9 +788,11 @@
         <v>403323556.2910189</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -825,9 +827,11 @@
         <v>403262724.1997189</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -5043,16 +5047,18 @@
         <v>402467361.7415144</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
       <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -5082,7 +5088,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5115,7 +5125,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5162,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5181,7 +5199,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5214,7 +5236,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5247,7 +5273,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5280,7 +5310,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5313,7 +5347,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5346,7 +5384,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5379,7 +5421,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5412,7 +5458,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5441,11 +5491,15 @@
         <v>402480250.8734192</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5474,11 +5528,15 @@
         <v>402480250.8734192</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5511,7 +5569,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5544,7 +5606,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5577,7 +5643,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5610,7 +5680,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5643,7 +5717,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5676,7 +5754,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5709,7 +5791,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5742,7 +5828,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5775,7 +5865,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5808,7 +5902,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5841,7 +5939,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5874,7 +5976,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5907,7 +6013,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5940,7 +6050,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5973,7 +6087,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6006,7 +6124,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6039,7 +6161,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6072,7 +6198,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6105,7 +6235,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6138,7 +6272,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6171,7 +6309,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6204,7 +6346,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6237,7 +6383,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6270,7 +6420,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6457,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6336,7 +6494,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6369,7 +6531,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6402,7 +6568,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6435,7 +6605,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6468,7 +6642,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6501,7 +6679,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6534,7 +6716,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6567,7 +6753,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6600,7 +6790,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6633,7 +6827,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6666,7 +6864,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6699,7 +6901,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6732,7 +6938,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6765,7 +6975,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6798,7 +7012,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6831,7 +7049,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6864,7 +7086,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6897,7 +7123,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6930,7 +7160,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6963,7 +7197,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6996,7 +7234,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7029,7 +7271,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7062,7 +7308,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7095,7 +7345,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7128,7 +7382,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7161,7 +7419,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7194,7 +7456,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7227,7 +7493,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7260,7 +7530,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7293,7 +7567,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7326,7 +7604,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7359,7 +7641,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7392,7 +7678,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7425,7 +7715,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +7752,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7491,7 +7789,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7524,7 +7826,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7557,7 +7863,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7590,7 +7900,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7623,7 +7937,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7656,7 +7974,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7689,7 +8011,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7722,7 +8048,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7755,7 +8085,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7788,7 +8122,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7821,7 +8159,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7854,7 +8196,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7887,7 +8233,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7920,7 +8270,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7953,7 +8307,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7986,7 +8344,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8019,7 +8381,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8052,7 +8418,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8085,7 +8455,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8118,7 +8492,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8151,7 +8529,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8184,7 +8566,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8217,7 +8603,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8250,7 +8640,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8283,7 +8677,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8316,7 +8714,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8349,7 +8751,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8382,7 +8788,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8415,7 +8825,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8448,7 +8862,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8481,7 +8899,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8514,7 +8936,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8547,7 +8973,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8580,7 +9010,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +9047,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8646,7 +9084,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8679,7 +9121,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8712,7 +9158,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8745,7 +9195,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8778,7 +9232,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8811,7 +9269,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8844,7 +9306,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8877,7 +9343,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8910,7 +9380,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8943,7 +9417,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8976,7 +9454,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9009,7 +9491,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9042,7 +9528,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9075,7 +9565,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9108,7 +9602,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9141,7 +9639,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9174,7 +9676,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9207,7 +9713,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9240,7 +9750,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9273,7 +9787,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9306,7 +9824,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9339,7 +9861,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9372,7 +9898,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9405,7 +9935,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9438,7 +9972,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9471,7 +10009,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9504,7 +10046,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9537,7 +10083,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9570,7 +10120,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9603,7 +10157,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9636,7 +10194,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9669,7 +10231,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9702,7 +10268,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9735,7 +10305,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +10342,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9801,7 +10379,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9834,7 +10416,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9867,7 +10453,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9896,11 +10486,17 @@
         <v>399909937.0110332</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>15.72</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9929,11 +10525,17 @@
         <v>400001153.6709332</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>15.75</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9962,11 +10564,17 @@
         <v>399928628.9452332</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>15.98</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9999,7 +10607,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10032,7 +10644,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10065,7 +10681,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10098,7 +10718,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10127,11 +10751,17 @@
         <v>400052814.8764332</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>15.97</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10160,11 +10790,17 @@
         <v>400069029.7607332</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>15.91</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10193,11 +10829,17 @@
         <v>400123627.2816532</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>15.97</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10226,11 +10868,17 @@
         <v>400123627.2816532</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>16</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10259,11 +10907,17 @@
         <v>400226896.0906532</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>16</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10296,7 +10950,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10325,11 +10983,17 @@
         <v>400224302.8742532</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>16.1</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10358,11 +11022,17 @@
         <v>400224302.8742532</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>16.1</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10391,11 +11061,17 @@
         <v>400224346.5563532</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>16.1</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10424,11 +11100,17 @@
         <v>400227352.5748532</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10461,7 +11143,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10494,7 +11180,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10527,7 +11217,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10560,7 +11254,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10593,7 +11291,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10626,7 +11328,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10659,7 +11365,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10688,11 +11398,17 @@
         <v>400064983.8214532</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>15.94</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10721,11 +11437,17 @@
         <v>400087226.1089532</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>15.94</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10754,11 +11476,17 @@
         <v>400087226.1089532</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>15.95</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10787,11 +11515,17 @@
         <v>399934755.6112532</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>15.95</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10820,11 +11554,17 @@
         <v>399938932.8585532</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>15.94</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10853,11 +11593,17 @@
         <v>399904909.6605485</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>16.09</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10886,11 +11632,17 @@
         <v>399986709.4031901</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>15.94</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10919,11 +11671,17 @@
         <v>399986709.4031901</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>15.96</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10952,11 +11710,17 @@
         <v>399986709.4031901</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>15.96</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10985,11 +11749,17 @@
         <v>400125648.6384901</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>15.96</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11018,11 +11788,17 @@
         <v>400106980.3124167</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>16.08</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11051,11 +11827,17 @@
         <v>400136908.5690168</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>16.07</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11084,11 +11866,17 @@
         <v>400136811.5690168</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>16.11</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11117,11 +11905,17 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>16.08</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11150,11 +11944,17 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>16.12</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11183,11 +11983,17 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>16.12</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11216,11 +12022,17 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>16.12</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11249,11 +12061,17 @@
         <v>400153180.1499562</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>16.12</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11282,11 +12100,17 @@
         <v>400153180.1499562</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>16.19</v>
+      </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11315,11 +12139,17 @@
         <v>400172875.9454278</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>16.19</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11348,11 +12178,17 @@
         <v>400164543.9454278</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>16.2</v>
+      </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11381,11 +12217,17 @@
         <v>400164543.9454278</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>16.19</v>
+      </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11414,11 +12256,17 @@
         <v>399964375.4367278</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>16.19</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11447,11 +12295,17 @@
         <v>399964542.1810278</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>16.06</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11480,11 +12334,17 @@
         <v>399762351.4124278</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>16.07</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11513,11 +12373,17 @@
         <v>399762413.4471278</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>15.94</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11550,7 +12416,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11583,7 +12453,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11616,7 +12490,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11649,7 +12527,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11682,7 +12564,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11715,7 +12601,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11748,7 +12638,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11781,7 +12675,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11814,7 +12712,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11847,7 +12749,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11880,7 +12786,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11913,7 +12823,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11946,7 +12860,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11979,7 +12897,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12012,7 +12934,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12045,7 +12971,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12078,7 +13008,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12111,7 +13045,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12144,7 +13082,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12177,7 +13119,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12210,7 +13156,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12243,7 +13193,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12276,7 +13230,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12309,7 +13267,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12342,7 +13304,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12375,7 +13341,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12408,7 +13378,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12441,7 +13415,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12474,7 +13452,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12507,7 +13489,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12540,7 +13526,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12573,7 +13563,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12606,7 +13600,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12639,7 +13637,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12672,7 +13674,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12705,7 +13711,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12738,7 +13748,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12771,7 +13785,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12804,7 +13822,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12837,7 +13859,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12870,7 +13896,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12903,7 +13933,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12936,7 +13970,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12969,7 +14007,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13002,7 +14044,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13035,7 +14081,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13068,7 +14118,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13101,7 +14155,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13134,7 +14192,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13167,7 +14229,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13200,7 +14266,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13233,7 +14303,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13266,7 +14340,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13299,7 +14377,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13332,7 +14414,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13365,7 +14451,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13398,7 +14488,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13431,7 +14525,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13464,7 +14562,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13497,7 +14599,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13530,7 +14636,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13563,7 +14673,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13596,7 +14710,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13629,7 +14747,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13662,7 +14784,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13691,11 +14817,15 @@
         <v>401054558.2475767</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13724,11 +14854,15 @@
         <v>401277216.3194767</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13761,7 +14895,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13790,11 +14928,15 @@
         <v>401705013.4782767</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13823,11 +14965,15 @@
         <v>402745510.5916658</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13856,11 +15002,15 @@
         <v>402745510.5916658</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13893,10 +15043,12 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="inlineStr"/>
     </row>
     <row r="395">
@@ -13955,7 +15107,7 @@
         <v>401900413.5311123</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13988,7 +15140,7 @@
         <v>402645763.1319395</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14021,7 +15173,7 @@
         <v>402645763.1319395</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14054,7 +15206,7 @@
         <v>402428921.8466395</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14087,7 +15239,7 @@
         <v>402429338.6512395</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14120,7 +15272,7 @@
         <v>402418500.1942395</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14153,7 +15305,7 @@
         <v>402418500.1942395</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14186,7 +15338,7 @@
         <v>402397479.7224395</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14219,7 +15371,7 @@
         <v>402642517.6761395</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14252,7 +15404,7 @@
         <v>402839651.8752395</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14285,7 +15437,7 @@
         <v>402839651.8752395</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14318,7 +15470,7 @@
         <v>403023398.6599771</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14351,7 +15503,7 @@
         <v>403157652.3635771</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14384,7 +15536,7 @@
         <v>403287330.0604814</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15077,7 +16229,7 @@
         <v>405111503.0513414</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15143,7 +16295,7 @@
         <v>405012521.3304414</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -18641,7 +19793,7 @@
         <v>404028064.7423354</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18674,7 +19826,7 @@
         <v>404023268.8300131</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18707,7 +19859,7 @@
         <v>403974543.2395131</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18740,7 +19892,7 @@
         <v>403934686.9604131</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18938,7 +20090,7 @@
         <v>404056474.2653131</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19004,7 +20156,7 @@
         <v>404105647.8461131</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19037,7 +20189,7 @@
         <v>404105647.8461131</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19070,7 +20222,7 @@
         <v>404224657.2055131</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19103,7 +20255,7 @@
         <v>404216877.5694131</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19169,7 +20321,7 @@
         <v>404203380.3010131</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -25571,7 +26723,7 @@
         <v>398519966.0953571</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25604,7 +26756,7 @@
         <v>398875756.6035137</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25637,7 +26789,7 @@
         <v>399142498.0015137</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25670,7 +26822,7 @@
         <v>399394225.2899137</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25703,7 +26855,7 @@
         <v>399521197.9022136</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25736,7 +26888,7 @@
         <v>399807647.9140136</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26066,7 +27218,7 @@
         <v>400168980.7245137</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26099,7 +27251,7 @@
         <v>400043241.0652949</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26132,7 +27284,7 @@
         <v>400012989.3018137</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26528,7 +27680,7 @@
         <v>399997598.1448137</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26561,7 +27713,7 @@
         <v>399989452.5426137</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26594,7 +27746,7 @@
         <v>399910133.8766137</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26627,7 +27779,7 @@
         <v>399946654.4014137</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26660,7 +27812,7 @@
         <v>399946654.4014137</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26693,7 +27845,7 @@
         <v>399967795.0930138</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26726,7 +27878,7 @@
         <v>399990295.0930138</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26990,7 +28142,7 @@
         <v>400685141.1088137</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27287,7 +28439,7 @@
         <v>400895801.0509137</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27320,7 +28472,7 @@
         <v>400899181.0509137</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27353,7 +28505,7 @@
         <v>400909181.0509137</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27386,7 +28538,7 @@
         <v>400908731.0509137</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27419,7 +28571,7 @@
         <v>400911731.0509137</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27452,7 +28604,7 @@
         <v>400911731.0509137</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27485,7 +28637,7 @@
         <v>400897928.5554137</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27518,7 +28670,7 @@
         <v>400897828.5554137</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27551,7 +28703,7 @@
         <v>400897260.0022137</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27584,7 +28736,7 @@
         <v>400819249.0544137</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
